--- a/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B15-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>226851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>201031</v>
+        <v>202755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>255217</v>
+        <v>251084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2204346859535275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1953448842986271</v>
+        <v>0.197020439429256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2479981722538431</v>
+        <v>0.2439818235248748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>224</v>
@@ -765,19 +765,19 @@
         <v>227093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>199407</v>
+        <v>201304</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>254713</v>
+        <v>258407</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1738782779484482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1526801367995085</v>
+        <v>0.1541323731170541</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1950264483621339</v>
+        <v>0.197854425873391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>455</v>
@@ -786,19 +786,19 @@
         <v>453944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>416835</v>
+        <v>415765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>492241</v>
+        <v>492619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1943958047411085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1785045786418882</v>
+        <v>0.178046150063468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2107962185118829</v>
+        <v>0.2109580821225602</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>187617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163463</v>
+        <v>159263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213412</v>
+        <v>209624</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1823100907423317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1588391434286587</v>
+        <v>0.1547585371054107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2073753907514776</v>
+        <v>0.2036948511838913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -836,19 +836,19 @@
         <v>292009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263611</v>
+        <v>262813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324635</v>
+        <v>320937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2235826701920092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2018391487316747</v>
+        <v>0.2012283931531711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2485636538795462</v>
+        <v>0.2457323127940615</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -857,19 +857,19 @@
         <v>479626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443937</v>
+        <v>442492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518232</v>
+        <v>522430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2053937400114727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1901107104544935</v>
+        <v>0.1894916083416411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2219264208342257</v>
+        <v>0.2237240221798015</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>300178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>270188</v>
+        <v>273304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>328122</v>
+        <v>330488</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2916870872786914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2625453452034218</v>
+        <v>0.2655733891006499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3188407275387644</v>
+        <v>0.3211405253817833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>380</v>
@@ -907,19 +907,19 @@
         <v>385976</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>354679</v>
+        <v>355680</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>418927</v>
+        <v>420961</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2955301835413573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2715670516095214</v>
+        <v>0.2723340197232256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3207596523750424</v>
+        <v>0.3223177338615292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>680</v>
@@ -928,19 +928,19 @@
         <v>686153</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>644924</v>
+        <v>644104</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>731838</v>
+        <v>732133</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2938365212956055</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2761807340391451</v>
+        <v>0.2758295906211251</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3134003831744293</v>
+        <v>0.3135268013081888</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>185955</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>160705</v>
+        <v>163946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>209478</v>
+        <v>211026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.180695785483682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1561593089531283</v>
+        <v>0.1593086347519927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2035531627479122</v>
+        <v>0.2050570564630017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -978,19 +978,19 @@
         <v>235003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>209707</v>
+        <v>207406</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>263082</v>
+        <v>263622</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.179934749246627</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1605667480157435</v>
+        <v>0.1588049870419655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2014339085261179</v>
+        <v>0.2018472728247535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -999,19 +999,19 @@
         <v>420958</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>382921</v>
+        <v>385559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>461858</v>
+        <v>456860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1802701398416715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1639811022061799</v>
+        <v>0.1651109879352514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1977849770563404</v>
+        <v>0.1956447729890446</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>128507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>107789</v>
+        <v>108828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>149546</v>
+        <v>150142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1248723505417674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1047399677269637</v>
+        <v>0.1057494789104851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1453164585245209</v>
+        <v>0.1458955156281684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>161</v>
@@ -1049,19 +1049,19 @@
         <v>165965</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>141844</v>
+        <v>142999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191290</v>
+        <v>192844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1270741190715582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1086053767739004</v>
+        <v>0.1094901375849144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1464654198046891</v>
+        <v>0.1476551079373356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>289</v>
@@ -1070,19 +1070,19 @@
         <v>294472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259840</v>
+        <v>262672</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>327037</v>
+        <v>325276</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1261037941101417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1112730770943522</v>
+        <v>0.1124859023614278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1400494055040748</v>
+        <v>0.1392952647039256</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>191366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167224</v>
+        <v>167281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218003</v>
+        <v>219355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1131915485428897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09891158022076352</v>
+        <v>0.09894491944353853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1289469125657654</v>
+        <v>0.1297466532258111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -1195,19 +1195,19 @@
         <v>165145</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137948</v>
+        <v>143253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>188363</v>
+        <v>191830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1044933057263441</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0872845680250556</v>
+        <v>0.09064177914437604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1191845601573232</v>
+        <v>0.1213782500139954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -1216,19 +1216,19 @@
         <v>356511</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319944</v>
+        <v>323347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>395948</v>
+        <v>395909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1089889565877292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09780983231512316</v>
+        <v>0.09885039828980718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1210451698561905</v>
+        <v>0.1210332568728863</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>359647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>324846</v>
+        <v>327898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400100</v>
+        <v>394370</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2127281630100065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.192143646780102</v>
+        <v>0.1939485894887026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.23665527731941</v>
+        <v>0.2332664285168883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>304</v>
@@ -1266,19 +1266,19 @@
         <v>309472</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276647</v>
+        <v>277008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338793</v>
+        <v>340867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1958145580644876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1750450320418666</v>
+        <v>0.1752732262240537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2143669523740262</v>
+        <v>0.2156791222099685</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>657</v>
@@ -1287,19 +1287,19 @@
         <v>669120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626780</v>
+        <v>627614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>719973</v>
+        <v>718755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2045562848989939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1916125387340616</v>
+        <v>0.1918675743902812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2201027954285065</v>
+        <v>0.219730202500023</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>500711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>463844</v>
+        <v>463287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>539587</v>
+        <v>543138</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2961658212783616</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2743595952676341</v>
+        <v>0.2740299534024257</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.319160872937626</v>
+        <v>0.3212613465148789</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>537</v>
@@ -1337,19 +1337,19 @@
         <v>546497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>509411</v>
+        <v>508394</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>585460</v>
+        <v>582327</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3457886927766827</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3223232788355991</v>
+        <v>0.3216798330256928</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3704422074626299</v>
+        <v>0.3684599403083228</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1020</v>
@@ -1358,19 +1358,19 @@
         <v>1047207</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>990740</v>
+        <v>990964</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1099661</v>
+        <v>1095249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3201413166685479</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3028787430096463</v>
+        <v>0.3029472084332129</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3361770021403375</v>
+        <v>0.3348282650169185</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>375670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>343079</v>
+        <v>341141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>411064</v>
+        <v>410559</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2222051633214454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2029279231338099</v>
+        <v>0.201781794537807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2431407984112461</v>
+        <v>0.2428420500789042</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>307</v>
@@ -1408,19 +1408,19 @@
         <v>316080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>283206</v>
+        <v>285601</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>347676</v>
+        <v>349500</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1999955580065883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1791947378695963</v>
+        <v>0.1807103214182063</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2199877215431376</v>
+        <v>0.2211416381029231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>671</v>
@@ -1429,19 +1429,19 @@
         <v>691750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>646984</v>
+        <v>645101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>746319</v>
+        <v>741980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2114745007506139</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1977891643074454</v>
+        <v>0.1972136086013357</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2281570397028383</v>
+        <v>0.2268305516915392</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>263249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>232358</v>
+        <v>234955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>293614</v>
+        <v>293709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1557093038472968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1374379108264463</v>
+        <v>0.1389739633659651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1736700487600291</v>
+        <v>0.1737262500588823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -1479,19 +1479,19 @@
         <v>243241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217519</v>
+        <v>215934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275235</v>
+        <v>275985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1539078854258973</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1376323937335305</v>
+        <v>0.1366292633427764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1741513061333502</v>
+        <v>0.1746261162403768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>498</v>
@@ -1500,19 +1500,19 @@
         <v>506490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>461833</v>
+        <v>465613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>545083</v>
+        <v>549622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1548389410941151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1411868543920883</v>
+        <v>0.1423423767285351</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.166637064012758</v>
+        <v>0.1680246388112094</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>78696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61356</v>
+        <v>63682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95080</v>
+        <v>98064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1432085426244732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1116524741026332</v>
+        <v>0.115885375836551</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1730233868071926</v>
+        <v>0.1784534134833058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1625,19 +1625,19 @@
         <v>57434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44303</v>
+        <v>44820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73083</v>
+        <v>73533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1208185301896035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09319591904568346</v>
+        <v>0.09428288843183251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1537369816301947</v>
+        <v>0.1546837429490658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -1646,19 +1646,19 @@
         <v>136131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114968</v>
+        <v>114583</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159398</v>
+        <v>161225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1328234406264144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.112175018257575</v>
+        <v>0.1117988982810424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1555252207410006</v>
+        <v>0.1573077765600777</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>112853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93582</v>
+        <v>95161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132614</v>
+        <v>132544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2053653964671159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1702971937904874</v>
+        <v>0.1731699067869468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2413253832740569</v>
+        <v>0.2411986926261611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>86</v>
@@ -1696,19 +1696,19 @@
         <v>88330</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72377</v>
+        <v>72566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106482</v>
+        <v>107096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1858114028248665</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1522526153640529</v>
+        <v>0.1526489733566353</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2239946521891512</v>
+        <v>0.2252862488412663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -1717,19 +1717,19 @@
         <v>201183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>176177</v>
+        <v>176233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228542</v>
+        <v>227907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1962957177862816</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1718964884271189</v>
+        <v>0.1719514459323773</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2229898805210421</v>
+        <v>0.2223696056475186</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>175624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>152501</v>
+        <v>153059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198147</v>
+        <v>196874</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3195932461683926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2775156314406636</v>
+        <v>0.2785297899784167</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3605792626466019</v>
+        <v>0.3582638067376259</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>162</v>
@@ -1767,19 +1767,19 @@
         <v>170609</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>151069</v>
+        <v>150326</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191807</v>
+        <v>192809</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3588921671053759</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3177878169332698</v>
+        <v>0.3162240203611823</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4034832371909199</v>
+        <v>0.405591729233535</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>330</v>
@@ -1788,19 +1788,19 @@
         <v>346233</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>315628</v>
+        <v>315494</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>377304</v>
+        <v>377905</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3378211637960138</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.307959500663855</v>
+        <v>0.3078292181340499</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3681376006520604</v>
+        <v>0.36872407925385</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>115501</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97920</v>
+        <v>98246</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>136958</v>
+        <v>136840</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2101846385865441</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1781916184320016</v>
+        <v>0.1787845857076204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2492310897094185</v>
+        <v>0.2490156636604489</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -1838,19 +1838,19 @@
         <v>99789</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82718</v>
+        <v>82488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>119598</v>
+        <v>119481</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2099150682089671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1740046732934505</v>
+        <v>0.1735211369239465</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2515849860558651</v>
+        <v>0.2513384383110059</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>210</v>
@@ -1859,19 +1859,19 @@
         <v>215290</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189647</v>
+        <v>188189</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244482</v>
+        <v>244614</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2100596044502328</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1850392411600925</v>
+        <v>0.1836169488257695</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2385423553411929</v>
+        <v>0.238670888053932</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>66848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53191</v>
+        <v>53331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84207</v>
+        <v>84198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1216481761534742</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09679424458765808</v>
+        <v>0.09704958158494921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1532373813800101</v>
+        <v>0.1532199728972451</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -1909,19 +1909,19 @@
         <v>59214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43407</v>
+        <v>45968</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73984</v>
+        <v>75861</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.124562831671187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0913099406855702</v>
+        <v>0.09669768137816188</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1556331407160947</v>
+        <v>0.1595815478594569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -1930,19 +1930,19 @@
         <v>126063</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105708</v>
+        <v>106117</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150156</v>
+        <v>148377</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1230000733410574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.103139455944738</v>
+        <v>0.1035386662635593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1465079170039262</v>
+        <v>0.1447722641307123</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>496914</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>459421</v>
+        <v>456608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>541394</v>
+        <v>540066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1519952008183355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1405271049851559</v>
+        <v>0.1396664699699347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1656006242080949</v>
+        <v>0.1651946767273607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>438</v>
@@ -2055,19 +2055,19 @@
         <v>449672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>411037</v>
+        <v>413492</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>488775</v>
+        <v>490298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1337570552098729</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.12226495080455</v>
+        <v>0.1229951760079317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1453884641994857</v>
+        <v>0.1458413286681804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>928</v>
@@ -2076,19 +2076,19 @@
         <v>946586</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>891379</v>
+        <v>885225</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1004255</v>
+        <v>999960</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1427488093878696</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.134423388781026</v>
+        <v>0.1334954117585959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1514455171213305</v>
+        <v>0.1507977822179509</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>660117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>621488</v>
+        <v>616907</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>714183</v>
+        <v>708988</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2019155229462396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1900998278210079</v>
+        <v>0.1886984670732765</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2184531800057766</v>
+        <v>0.2168641468527567</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>676</v>
@@ -2126,19 +2126,19 @@
         <v>689811</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>646154</v>
+        <v>645464</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>737263</v>
+        <v>734530</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2051876939752869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1922014334071539</v>
+        <v>0.1919964479545019</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2193023081753353</v>
+        <v>0.2184894526800031</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1327</v>
@@ -2147,19 +2147,19 @@
         <v>1349928</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1281648</v>
+        <v>1280850</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1415026</v>
+        <v>1419542</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2035744511515261</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1932775347573128</v>
+        <v>0.1931572118149853</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2133913657257137</v>
+        <v>0.2140725012283863</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>976512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>925231</v>
+        <v>924903</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1030490</v>
+        <v>1035777</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2986938480904273</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2830082974715346</v>
+        <v>0.2829079405734257</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.315204545862409</v>
+        <v>0.3168219066289277</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1079</v>
@@ -2197,19 +2197,19 @@
         <v>1103081</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1052710</v>
+        <v>1050717</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1153553</v>
+        <v>1159986</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.328116674528643</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3131336285369622</v>
+        <v>0.3125408307850667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3431298608231299</v>
+        <v>0.3450434622697545</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2030</v>
@@ -2218,19 +2218,19 @@
         <v>2079593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2004896</v>
+        <v>2007525</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2159274</v>
+        <v>2158159</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3136106590469188</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3023460623216845</v>
+        <v>0.3027426171736308</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3256268719181524</v>
+        <v>0.3254586856433621</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>677126</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>629005</v>
+        <v>631185</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>723950</v>
+        <v>721572</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2071182734142152</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1923989043951898</v>
+        <v>0.1930659862783588</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2214405676483844</v>
+        <v>0.2207133358863816</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>633</v>
@@ -2268,19 +2268,19 @@
         <v>650871</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>603981</v>
+        <v>606735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>696907</v>
+        <v>699219</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1936047986949154</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1796569538296203</v>
+        <v>0.1804762333239701</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2072983027816264</v>
+        <v>0.2079860821466003</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1297</v>
@@ -2289,19 +2289,19 @@
         <v>1327998</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1264933</v>
+        <v>1254771</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1397474</v>
+        <v>1389757</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2002671998718276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1907568705144072</v>
+        <v>0.1892243203907322</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2107445435508934</v>
+        <v>0.2095807315366103</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>458604</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>419767</v>
+        <v>421819</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>499002</v>
+        <v>497666</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1402771547307824</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1283975539359793</v>
+        <v>0.1290251792102382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1526338625062462</v>
+        <v>0.1522253005970471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>455</v>
@@ -2339,19 +2339,19 @@
         <v>468420</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>429846</v>
+        <v>428580</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>510934</v>
+        <v>513404</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1393337775912818</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1278596016944694</v>
+        <v>0.1274830459088088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1519798831509803</v>
+        <v>0.1527145456089223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>905</v>
@@ -2360,19 +2360,19 @@
         <v>927024</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>871078</v>
+        <v>873694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>985889</v>
+        <v>983748</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1397988805418578</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.131361964948641</v>
+        <v>0.1317564496400241</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1486758986208273</v>
+        <v>0.1483530521010394</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>215794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186061</v>
+        <v>189225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>241678</v>
+        <v>244133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2242655045357543</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1933652847797953</v>
+        <v>0.1966535358891437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2511654241476819</v>
+        <v>0.2537171555347425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>245</v>
@@ -2724,19 +2724,19 @@
         <v>257817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231286</v>
+        <v>227198</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288341</v>
+        <v>286292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1939028102233389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1739488746745938</v>
+        <v>0.1708744627831789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2168593236516615</v>
+        <v>0.2153182271825774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>444</v>
@@ -2745,19 +2745,19 @@
         <v>473612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>433603</v>
+        <v>435436</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511855</v>
+        <v>511952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2066505161937971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1891936375642397</v>
+        <v>0.1899936204364308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2233373852754979</v>
+        <v>0.2233794483738689</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>125682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105848</v>
+        <v>104377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148834</v>
+        <v>146061</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.130615726153317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1100033643518969</v>
+        <v>0.1084743310953249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1546763470025958</v>
+        <v>0.1517944548970315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -2795,19 +2795,19 @@
         <v>210318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183428</v>
+        <v>187083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239396</v>
+        <v>241991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1581790303851364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1379547584115698</v>
+        <v>0.1407037616820221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.180048587716008</v>
+        <v>0.1820002712762502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>312</v>
@@ -2816,19 +2816,19 @@
         <v>336000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301750</v>
+        <v>300595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>373464</v>
+        <v>372986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1466066417721192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1316623669429742</v>
+        <v>0.1311583881334994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1629530096237957</v>
+        <v>0.1627447566995252</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>239371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>211659</v>
+        <v>213840</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>267717</v>
+        <v>270342</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2487673666529946</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.219968189223157</v>
+        <v>0.2222345319038335</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2782261164707793</v>
+        <v>0.2809542778083249</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>333</v>
@@ -2866,19 +2866,19 @@
         <v>358947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>323353</v>
+        <v>326064</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>390830</v>
+        <v>394929</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2699622267081714</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.243191679270122</v>
+        <v>0.2452305848233821</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2939411044050725</v>
+        <v>0.297023713686771</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>559</v>
@@ -2887,19 +2887,19 @@
         <v>598318</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>559777</v>
+        <v>553529</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>642971</v>
+        <v>641197</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.261063614441146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2442471345257527</v>
+        <v>0.2415206912564418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2805467630035144</v>
+        <v>0.2797728994479965</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>221204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>195946</v>
+        <v>195635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>250435</v>
+        <v>251556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.22988773338854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2036382559786493</v>
+        <v>0.2033147857364419</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2602661536552023</v>
+        <v>0.2614308464419031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -2937,19 +2937,19 @@
         <v>279999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>251157</v>
+        <v>251659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310950</v>
+        <v>311805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2105858757170131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1888939969656185</v>
+        <v>0.1892713085726245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2338637571610325</v>
+        <v>0.2345065657626545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>465</v>
@@ -2958,19 +2958,19 @@
         <v>501204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461718</v>
+        <v>461728</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>542048</v>
+        <v>541897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2186897153746038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2014610060241348</v>
+        <v>0.2014654432064746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2365113031713523</v>
+        <v>0.2364455437896754</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>160176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137217</v>
+        <v>136563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183821</v>
+        <v>184072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1664636692693941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1426040168829019</v>
+        <v>0.1419238215636172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1910370170382679</v>
+        <v>0.1912976493882287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -3008,19 +3008,19 @@
         <v>222539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196395</v>
+        <v>194580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>249963</v>
+        <v>252670</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1673700569663401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.147707580491599</v>
+        <v>0.1463426646761359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1879960157981353</v>
+        <v>0.190031875790326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>356</v>
@@ -3029,19 +3029,19 @@
         <v>382715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>348939</v>
+        <v>344075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>421545</v>
+        <v>417215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1669895122183339</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1522524093241982</v>
+        <v>0.15013007487191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1839325680651815</v>
+        <v>0.1820431098989352</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>239748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211524</v>
+        <v>212204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270825</v>
+        <v>269694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1222885073817515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1078919004995153</v>
+        <v>0.1082389143512719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1381397595528313</v>
+        <v>0.1375628464369665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -3154,19 +3154,19 @@
         <v>193483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166426</v>
+        <v>168407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223217</v>
+        <v>223043</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1104493190962443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09500393214857028</v>
+        <v>0.09613456950471957</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1274225915504778</v>
+        <v>0.1273231190473919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>397</v>
@@ -3175,19 +3175,19 @@
         <v>433232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>392691</v>
+        <v>394001</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>478262</v>
+        <v>477992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1167017506780895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1057810228522464</v>
+        <v>0.106133967378953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1288316312252759</v>
+        <v>0.1287589717202439</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>257158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227756</v>
+        <v>226087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289184</v>
+        <v>291076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.131168515204962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1161716963340649</v>
+        <v>0.1153202262309037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1475043485193567</v>
+        <v>0.1484693406019711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -3225,19 +3225,19 @@
         <v>240747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210512</v>
+        <v>212260</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270952</v>
+        <v>270687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.137429433188596</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1201697379252895</v>
+        <v>0.1211680025579377</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1546718742395166</v>
+        <v>0.1545206079634578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>469</v>
@@ -3246,19 +3246,19 @@
         <v>497905</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>457794</v>
+        <v>456701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544219</v>
+        <v>542903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1341229597726664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1233181742474616</v>
+        <v>0.1230237895527817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.146598811537039</v>
+        <v>0.1462443074892342</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>530333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>491520</v>
+        <v>489842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>574367</v>
+        <v>571816</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2705071416003942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2507096345890206</v>
+        <v>0.2498536338484399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2929671910106211</v>
+        <v>0.2916663727726434</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>478</v>
@@ -3296,19 +3296,19 @@
         <v>511764</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>474402</v>
+        <v>472363</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>553725</v>
+        <v>548815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2921385757562955</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2708106722992566</v>
+        <v>0.269646864050008</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.316091834703761</v>
+        <v>0.3132890088493226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>976</v>
@@ -3317,19 +3317,19 @@
         <v>1042097</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>986528</v>
+        <v>987664</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1105207</v>
+        <v>1095886</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2807147298966496</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2657456583149502</v>
+        <v>0.2660517753243071</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2977148818154825</v>
+        <v>0.2952039528379862</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>533705</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>494469</v>
+        <v>492028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>575579</v>
+        <v>574382</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2722266936820061</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.252213987189229</v>
+        <v>0.2509685153262963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2935854805828477</v>
+        <v>0.292974960664988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>438</v>
@@ -3367,19 +3367,19 @@
         <v>470055</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>436318</v>
+        <v>434163</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>510951</v>
+        <v>507752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2683290241356419</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2490705163964941</v>
+        <v>0.2478403182956556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2916747543616066</v>
+        <v>0.289848457614191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>939</v>
@@ -3388,19 +3388,19 @@
         <v>1003759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>945969</v>
+        <v>950864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1055749</v>
+        <v>1060496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2703874348627621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.25482026649594</v>
+        <v>0.2561388109908598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2843921397464706</v>
+        <v>0.2856707920036141</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>399571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360793</v>
+        <v>364310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>436382</v>
+        <v>433894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2038091421308861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1840299144905233</v>
+        <v>0.1858237175186003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2225852975912797</v>
+        <v>0.2213164342172883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -3438,19 +3438,19 @@
         <v>335736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>300361</v>
+        <v>301997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370832</v>
+        <v>369121</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1916536478232222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1714598177523091</v>
+        <v>0.172393683710331</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2116880043261247</v>
+        <v>0.2107110859058078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -3459,19 +3459,19 @@
         <v>735307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>683388</v>
+        <v>685191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>787565</v>
+        <v>783787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1980731247898325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1840873906644145</v>
+        <v>0.1845732230086705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.212150121094847</v>
+        <v>0.2111324736260019</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>56230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43184</v>
+        <v>43011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72253</v>
+        <v>73416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1173240176585723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09010284193942772</v>
+        <v>0.08974241714269013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1507555565104812</v>
+        <v>0.1531832940402868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -3584,19 +3584,19 @@
         <v>47346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34952</v>
+        <v>35010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63291</v>
+        <v>62410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1034506757073412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07636849832993627</v>
+        <v>0.07649637086831307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1382888560272509</v>
+        <v>0.136364116060101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -3605,19 +3605,19 @@
         <v>103577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84082</v>
+        <v>84184</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127303</v>
+        <v>126045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1105472566236415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08974073111869832</v>
+        <v>0.08984936779506038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1358700171872364</v>
+        <v>0.1345273375552129</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>70537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55725</v>
+        <v>55473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88645</v>
+        <v>87954</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1471752224685691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1162700602897281</v>
+        <v>0.1157438075269875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.184957618610114</v>
+        <v>0.1835163401043533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -3655,19 +3655,19 @@
         <v>71023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55242</v>
+        <v>55552</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88719</v>
+        <v>89175</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1551840448332165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1207018666740425</v>
+        <v>0.1213786639137054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1938493647843524</v>
+        <v>0.1948437674061189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -3676,19 +3676,19 @@
         <v>141560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121149</v>
+        <v>117091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>169430</v>
+        <v>166322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1510873206153036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1293019473777925</v>
+        <v>0.1249715552971455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1808322096504033</v>
+        <v>0.1775153233625884</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>164456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>141825</v>
+        <v>142993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>186271</v>
+        <v>186427</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3431375070372659</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2959181435221555</v>
+        <v>0.2983546016006614</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3886556679311656</v>
+        <v>0.3889796520616332</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -3726,19 +3726,19 @@
         <v>140869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>122167</v>
+        <v>119181</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161591</v>
+        <v>161888</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3077951658445068</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2669318268517966</v>
+        <v>0.2604073599334061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3530712308692392</v>
+        <v>0.3537207767715824</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>276</v>
@@ -3747,19 +3747,19 @@
         <v>305325</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>272879</v>
+        <v>277536</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>336786</v>
+        <v>339875</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3258737070444266</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2912437337314108</v>
+        <v>0.2962142213417172</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3594512333034421</v>
+        <v>0.3627485704752154</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>119131</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100797</v>
+        <v>100084</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>141065</v>
+        <v>139959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2485665388006179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2103140856162299</v>
+        <v>0.208826524681307</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2943322311995843</v>
+        <v>0.2920255280884818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -3797,19 +3797,19 @@
         <v>125021</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106483</v>
+        <v>105284</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145057</v>
+        <v>145352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2731678267987896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.232661452425137</v>
+        <v>0.230043070552942</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3169462643030186</v>
+        <v>0.3175902335948418</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>223</v>
@@ -3818,19 +3818,19 @@
         <v>244152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>214107</v>
+        <v>217550</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>271791</v>
+        <v>273837</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2605836180668236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2285166934767812</v>
+        <v>0.2321911454065557</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2900824413666137</v>
+        <v>0.2922663899035796</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>68918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54669</v>
+        <v>54279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>86609</v>
+        <v>85939</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1437967140349749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1140677359663072</v>
+        <v>0.1132529000572924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1807098990872212</v>
+        <v>0.1793111920116989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -3868,19 +3868,19 @@
         <v>73412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58922</v>
+        <v>57699</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>91942</v>
+        <v>91612</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1604022868161459</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1287426787501729</v>
+        <v>0.1260714662269579</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2008907110617626</v>
+        <v>0.2001688829358423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -3889,19 +3889,19 @@
         <v>142329</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>122305</v>
+        <v>120366</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168574</v>
+        <v>165470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1519080976498047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.130536205557321</v>
+        <v>0.1284662944236946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1799186523300611</v>
+        <v>0.1766060703421301</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>511773</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>467537</v>
+        <v>471531</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>558067</v>
+        <v>560371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1504323365849006</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.137429430271592</v>
+        <v>0.1386033898023983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1640402836679939</v>
+        <v>0.1647174971928091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>459</v>
@@ -4014,19 +4014,19 @@
         <v>498647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>460048</v>
+        <v>456173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>541805</v>
+        <v>540431</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1408974763374782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1299907655352765</v>
+        <v>0.1288960415077034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1530920791289276</v>
+        <v>0.1527037333267749</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>933</v>
@@ -4035,19 +4035,19 @@
         <v>1010420</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>948217</v>
+        <v>945923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1073725</v>
+        <v>1073927</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1455707641876336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1366091560813603</v>
+        <v>0.1362786701652894</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1546910696984094</v>
+        <v>0.1547201715591486</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>453377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>414902</v>
+        <v>413732</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>495390</v>
+        <v>495060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1332671691162998</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1219578048730271</v>
+        <v>0.1216138746786598</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1456167460580745</v>
+        <v>0.1455197145006264</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>480</v>
@@ -4085,19 +4085,19 @@
         <v>522089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>481908</v>
+        <v>483648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>570826</v>
+        <v>565556</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1475210117595161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.136167623060496</v>
+        <v>0.1366593844151308</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.16129212693536</v>
+        <v>0.1598031963987406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>906</v>
@@ -4106,19 +4106,19 @@
         <v>975465</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>918689</v>
+        <v>914062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1035653</v>
+        <v>1036046</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1405348255004592</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1323551767183383</v>
+        <v>0.1316885611032985</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1492060285726642</v>
+        <v>0.1492627151268848</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>934160</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>882172</v>
+        <v>886359</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>984080</v>
+        <v>992929</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2745903293314575</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2593087142913727</v>
+        <v>0.2605397157462032</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2892640557144232</v>
+        <v>0.2918652754857254</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>939</v>
@@ -4156,19 +4156,19 @@
         <v>1011581</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>962329</v>
+        <v>956718</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1069453</v>
+        <v>1070011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2858316936158155</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2719150976409441</v>
+        <v>0.2703295964422707</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3021840760648521</v>
+        <v>0.3023417271825098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1811</v>
@@ -4177,19 +4177,19 @@
         <v>1945741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1870805</v>
+        <v>1872491</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2028674</v>
+        <v>2023436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2803220028845367</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2695259822918948</v>
+        <v>0.2697688980244622</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2922700947358173</v>
+        <v>0.2915155035429983</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>874039</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>826123</v>
+        <v>819199</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>928782</v>
+        <v>928629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2569183096562418</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2428334410986516</v>
+        <v>0.2407982092895098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.273009636193515</v>
+        <v>0.272964631197417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>811</v>
@@ -4227,19 +4227,19 @@
         <v>875076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>824705</v>
+        <v>821664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>933613</v>
+        <v>925019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2472608535463604</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2330281958458034</v>
+        <v>0.2321688398576474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.263801106136951</v>
+        <v>0.2613727286366574</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1627</v>
@@ -4248,19 +4248,19 @@
         <v>1749115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1670863</v>
+        <v>1674793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1820872</v>
+        <v>1818848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2519942288796715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2407204393823715</v>
+        <v>0.2412867273285737</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2623322654177097</v>
+        <v>0.2620406798697021</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>628664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>583233</v>
+        <v>583539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>675749</v>
+        <v>675833</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1847918553111002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1714375138068887</v>
+        <v>0.1715277044353341</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1986321999637429</v>
+        <v>0.1986569313848385</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>592</v>
@@ -4298,19 +4298,19 @@
         <v>631687</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>586480</v>
+        <v>582881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>679726</v>
+        <v>678142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1784889647408298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1657154511793598</v>
+        <v>0.1646986210854949</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1920630428817729</v>
+        <v>0.1916153484109641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1189</v>
@@ -4319,19 +4319,19 @@
         <v>1260351</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1190594</v>
+        <v>1185409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1324399</v>
+        <v>1325791</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1815781785476988</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1715282994258562</v>
+        <v>0.1707813559110561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1908055645082428</v>
+        <v>0.1910061306777412</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>226426</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199479</v>
+        <v>202425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251396</v>
+        <v>253211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3012419993805587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2653921493984269</v>
+        <v>0.2693116649460572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3344632274073145</v>
+        <v>0.3368774478356682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -4683,19 +4683,19 @@
         <v>312829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>283126</v>
+        <v>281549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>343772</v>
+        <v>343571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3145086488352299</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2846456848498429</v>
+        <v>0.2830604476279643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.34561754142217</v>
+        <v>0.3454154771526807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>506</v>
@@ -4704,19 +4704,19 @@
         <v>539255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500493</v>
+        <v>504322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>581867</v>
+        <v>579931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.308798438030695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2866019015716939</v>
+        <v>0.2887948041800458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3332001661154422</v>
+        <v>0.3320914386623375</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>139873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121366</v>
+        <v>120499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163331</v>
+        <v>161130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1860897636743737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1614685057042</v>
+        <v>0.1603146334449652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.217298870165917</v>
+        <v>0.2143706670738281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -4754,19 +4754,19 @@
         <v>201666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176559</v>
+        <v>177396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231008</v>
+        <v>225788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2027491295607483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1775065789028322</v>
+        <v>0.1783484980810257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2322482998693991</v>
+        <v>0.2270000567819928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -4775,19 +4775,19 @@
         <v>341539</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307097</v>
+        <v>308943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>373815</v>
+        <v>375345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1955786309803715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1758556547837642</v>
+        <v>0.1769130439834904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2140612060252129</v>
+        <v>0.2149371840359633</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>162168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141862</v>
+        <v>139804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>185343</v>
+        <v>183963</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2157525367218406</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1887369839851989</v>
+        <v>0.1859992618272931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2465844817063562</v>
+        <v>0.2447488947829009</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>201</v>
@@ -4825,19 +4825,19 @@
         <v>221699</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>196147</v>
+        <v>195375</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>247983</v>
+        <v>249652</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2228890711687257</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1972002056014394</v>
+        <v>0.1964238673115349</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2493140218010015</v>
+        <v>0.2509920880279894</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>364</v>
@@ -4846,19 +4846,19 @@
         <v>383867</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>349062</v>
+        <v>351302</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>424715</v>
+        <v>419574</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2198173750147891</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.199886412505363</v>
+        <v>0.2011695032224665</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2432086113122845</v>
+        <v>0.2402647572618148</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>143584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124473</v>
+        <v>123603</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165557</v>
+        <v>165165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1910278042651624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1656021783827438</v>
+        <v>0.164443872125687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2202607532701656</v>
+        <v>0.2197394826037286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -4896,19 +4896,19 @@
         <v>173057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147659</v>
+        <v>150366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200578</v>
+        <v>198300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1739860002662306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1484513875847412</v>
+        <v>0.1511735361720066</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2016546593447384</v>
+        <v>0.1993641608485058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>303</v>
@@ -4917,19 +4917,19 @@
         <v>316641</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>284083</v>
+        <v>284145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351529</v>
+        <v>348477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1813211072693935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1626768335621638</v>
+        <v>0.1627126186578686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.201299191667763</v>
+        <v>0.1995514893860427</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>79590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63355</v>
+        <v>63250</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97199</v>
+        <v>98216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1058878959580646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08428886526318199</v>
+        <v>0.08414873365789477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1293159728693635</v>
+        <v>0.1306691019096232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -4967,19 +4967,19 @@
         <v>85409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>68670</v>
+        <v>68926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>106597</v>
+        <v>105495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08586715016906551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06903862052856072</v>
+        <v>0.06929581373945111</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1071695094805234</v>
+        <v>0.1060614686058574</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>151</v>
@@ -4988,19 +4988,19 @@
         <v>164998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142071</v>
+        <v>142545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>190657</v>
+        <v>192753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09448444870475088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08135565038033866</v>
+        <v>0.08162685804412433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1091774655655383</v>
+        <v>0.1103779508660806</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>335972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304343</v>
+        <v>301000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>373763</v>
+        <v>371764</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1623033489035634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1470236039854746</v>
+        <v>0.1454085513011831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1805592539595485</v>
+        <v>0.1795936208497805</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -5113,19 +5113,19 @@
         <v>323225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>290213</v>
+        <v>290878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>354101</v>
+        <v>354336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1629964082099745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1463490100548275</v>
+        <v>0.146684706259226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1785665814796624</v>
+        <v>0.1786850662609477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>605</v>
@@ -5134,19 +5134,19 @@
         <v>659197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>609874</v>
+        <v>611048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>706280</v>
+        <v>708480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1626424392963681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1504730998598552</v>
+        <v>0.1507627748454659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1742592241329949</v>
+        <v>0.1748019443756428</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>400769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>365455</v>
+        <v>366271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437478</v>
+        <v>438893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1936054633809301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1765458337316599</v>
+        <v>0.1769402394372356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2113391841100777</v>
+        <v>0.2120228672935814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>363</v>
@@ -5184,19 +5184,19 @@
         <v>376678</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339476</v>
+        <v>343855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>410356</v>
+        <v>413057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1899520496192339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1711917393741769</v>
+        <v>0.1733999215034209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2069350418205705</v>
+        <v>0.2082973771883641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>732</v>
@@ -5205,19 +5205,19 @@
         <v>777446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>718842</v>
+        <v>722111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>825783</v>
+        <v>827042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1918179720420622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.17735862857893</v>
+        <v>0.1781650854450751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2037439743130124</v>
+        <v>0.2040546717178371</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>545140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>504659</v>
+        <v>506031</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>588163</v>
+        <v>586321</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2633493529603406</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2437932287065584</v>
+        <v>0.244456425005037</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2841331877192834</v>
+        <v>0.2832430879396912</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>520</v>
@@ -5255,19 +5255,19 @@
         <v>543697</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>502739</v>
+        <v>508315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>583315</v>
+        <v>586069</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2741765382897013</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2535222783965118</v>
+        <v>0.256334114511962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2941555170641144</v>
+        <v>0.295544194426104</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1042</v>
@@ -5276,19 +5276,19 @@
         <v>1088837</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1032812</v>
+        <v>1035866</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1151964</v>
+        <v>1145819</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2686467272143763</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.254823901431356</v>
+        <v>0.2555773903495467</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.284221896469816</v>
+        <v>0.2827058297346737</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>504031</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>465953</v>
+        <v>462698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>543679</v>
+        <v>543462</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2434902136473338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2250950764963166</v>
+        <v>0.2235229095665592</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2626436370958836</v>
+        <v>0.262538662354631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>461</v>
@@ -5326,19 +5326,19 @@
         <v>464853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>430621</v>
+        <v>426538</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>505522</v>
+        <v>504038</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2344171202108687</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2171546769633575</v>
+        <v>0.2150953467552453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2549257938652491</v>
+        <v>0.2541773543072136</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>942</v>
@@ -5347,19 +5347,19 @@
         <v>968884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>913250</v>
+        <v>917086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1024099</v>
+        <v>1021877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2390510570140347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2253246342545714</v>
+        <v>0.2262708716042571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2526740278570501</v>
+        <v>0.2521257692579975</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>284115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251999</v>
+        <v>253662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317200</v>
+        <v>319051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1372516211078321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1217369362796537</v>
+        <v>0.1225404054150446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1532346273728896</v>
+        <v>0.1541289906580167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -5397,19 +5397,19 @@
         <v>274564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>245433</v>
+        <v>243474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306109</v>
+        <v>307239</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1384578836702215</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1237673012897188</v>
+        <v>0.122779426845179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1543651549665074</v>
+        <v>0.1549351131763591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -5418,19 +5418,19 @@
         <v>558679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514261</v>
+        <v>509815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>602101</v>
+        <v>604041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1378418044331587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1268827684041119</v>
+        <v>0.1257858145546645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1485553210495176</v>
+        <v>0.1490338528332789</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>98522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81525</v>
+        <v>79382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121598</v>
+        <v>118521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1806506678434251</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1494845744878718</v>
+        <v>0.1455565926336811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2229627119303927</v>
+        <v>0.2173216245021505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -5543,19 +5543,19 @@
         <v>64344</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49285</v>
+        <v>49649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81963</v>
+        <v>80405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.117422407336211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08994089895426557</v>
+        <v>0.09060431638539496</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1495756817737299</v>
+        <v>0.1467314887470107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -5564,19 +5564,19 @@
         <v>162866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138663</v>
+        <v>139788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188049</v>
+        <v>188181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1489613631159872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1268252393851327</v>
+        <v>0.1278539678516306</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1719942388961322</v>
+        <v>0.1721152098685891</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>98426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81623</v>
+        <v>80007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117738</v>
+        <v>117257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1804746467313579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1496645882911015</v>
+        <v>0.1467013825334095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2158850691218982</v>
+        <v>0.215004573740343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -5614,19 +5614,19 @@
         <v>121544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103119</v>
+        <v>103862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144344</v>
+        <v>142121</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2218077855131728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1881836204763155</v>
+        <v>0.1895385363836081</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2634154484440233</v>
+        <v>0.2593585487656789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -5635,19 +5635,19 @@
         <v>219970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194704</v>
+        <v>191416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249948</v>
+        <v>248349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2011903586565494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1780814062303852</v>
+        <v>0.1750742957946949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2286092553937292</v>
+        <v>0.2271466973226724</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>176738</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>155121</v>
+        <v>154855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>200650</v>
+        <v>199358</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3240681420857435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2844315972467197</v>
+        <v>0.2839437399613512</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.36791460541862</v>
+        <v>0.3655450325566341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -5685,19 +5685,19 @@
         <v>133340</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>113121</v>
+        <v>115624</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>154679</v>
+        <v>156312</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2433337248811437</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2064358934924098</v>
+        <v>0.2110031601178348</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2822746028727388</v>
+        <v>0.2852562439592187</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>291</v>
@@ -5706,19 +5706,19 @@
         <v>310077</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>279403</v>
+        <v>280721</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>342586</v>
+        <v>342108</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2836049452768298</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2555492608359329</v>
+        <v>0.256755013285198</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3133377796478363</v>
+        <v>0.3129013109843243</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>121006</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101427</v>
+        <v>102794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143568</v>
+        <v>141619</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.221877628870878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1859773352576342</v>
+        <v>0.1884844225173133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2632478283019059</v>
+        <v>0.2596742080561663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -5756,19 +5756,19 @@
         <v>157483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>137548</v>
+        <v>136168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180301</v>
+        <v>179092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2873930769088401</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2510123357335649</v>
+        <v>0.2484946949374811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3290339480316647</v>
+        <v>0.3268271135535932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>264</v>
@@ -5777,19 +5777,19 @@
         <v>278489</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>250676</v>
+        <v>250072</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>306850</v>
+        <v>308263</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2547132466875777</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.229274782009934</v>
+        <v>0.2287223168738277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2806528317169732</v>
+        <v>0.2819452677632821</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>50681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38518</v>
+        <v>38239</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66168</v>
+        <v>65958</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09292891446859555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0706279145935738</v>
+        <v>0.07011624745064983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1213255331956545</v>
+        <v>0.1209408529058942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>70</v>
@@ -5827,19 +5827,19 @@
         <v>71260</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56476</v>
+        <v>56179</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87951</v>
+        <v>89563</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1300430053606324</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1030645150662833</v>
+        <v>0.1025219800415995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1605030557319825</v>
+        <v>0.1634446724585691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -5848,19 +5848,19 @@
         <v>121941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102677</v>
+        <v>100866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146048</v>
+        <v>143430</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1115300862630559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09391125789675998</v>
+        <v>0.09225510537829695</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1335789313660801</v>
+        <v>0.1311849531557679</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>660919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>613175</v>
+        <v>615424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>706689</v>
+        <v>704187</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1962910566658169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1821110454302717</v>
+        <v>0.1827791842582346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2098843401458883</v>
+        <v>0.2091413142102587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>627</v>
@@ -5973,19 +5973,19 @@
         <v>700398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>657726</v>
+        <v>650944</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>756586</v>
+        <v>749293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1986579146095844</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1865546315909229</v>
+        <v>0.1846310640033737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2145947876653001</v>
+        <v>0.2125262395487264</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1258</v>
@@ -5994,19 +5994,19 @@
         <v>1361318</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1292203</v>
+        <v>1290149</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1426167</v>
+        <v>1433669</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1975017179348104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.187474542785837</v>
+        <v>0.1871765211526572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2069101552789449</v>
+        <v>0.2079985759672898</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>639067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>592073</v>
+        <v>590724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>688889</v>
+        <v>680229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1898008511535507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1758439650361314</v>
+        <v>0.1754432726891944</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2045979296441285</v>
+        <v>0.2020260536306298</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>661</v>
@@ -6044,19 +6044,19 @@
         <v>699889</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>657189</v>
+        <v>651247</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>749460</v>
+        <v>747861</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1985135344951558</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.186402208986295</v>
+        <v>0.1847170724850579</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2125735835695029</v>
+        <v>0.212120289305146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1264</v>
@@ -6065,19 +6065,19 @@
         <v>1338956</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1272497</v>
+        <v>1274023</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1400508</v>
+        <v>1408377</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1942574381229804</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1846155347614034</v>
+        <v>0.1848368612303577</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2031874663189588</v>
+        <v>0.2043291218739962</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>884046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>834249</v>
+        <v>829033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>934820</v>
+        <v>937402</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.262558942698536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2477693577298466</v>
+        <v>0.246220197081344</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2776387424383727</v>
+        <v>0.2784054262674275</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>850</v>
@@ -6115,19 +6115,19 @@
         <v>898735</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>847447</v>
+        <v>848946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>951156</v>
+        <v>956609</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2549135317644481</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.240366226530947</v>
+        <v>0.2407914943326972</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2697819978319624</v>
+        <v>0.2713284883703655</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1697</v>
@@ -6136,19 +6136,19 @@
         <v>1782782</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1711283</v>
+        <v>1711027</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1865347</v>
+        <v>1863136</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.258648271621798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2482751219605389</v>
+        <v>0.2482380684799523</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2706269641909436</v>
+        <v>0.2703061291410242</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>768621</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>721893</v>
+        <v>721742</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>819860</v>
+        <v>824791</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2282781137794652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2143999248117498</v>
+        <v>0.2143552676760279</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2434957730057736</v>
+        <v>0.244960396306438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>770</v>
@@ -6186,19 +6186,19 @@
         <v>795393</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>741123</v>
+        <v>743347</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>845841</v>
+        <v>846176</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2256019736966415</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.21020911220055</v>
+        <v>0.2108399022970014</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2399109196668074</v>
+        <v>0.2400059498834091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1509</v>
@@ -6207,19 +6207,19 @@
         <v>1564014</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1496064</v>
+        <v>1500553</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1631694</v>
+        <v>1643020</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2269092529413202</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.217050917729895</v>
+        <v>0.2177021914064729</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2367283197008715</v>
+        <v>0.2383715061782047</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>414385</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>377683</v>
+        <v>375761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>456372</v>
+        <v>457548</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1230710357026312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1121707753277072</v>
+        <v>0.1115997256393593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1355410066938219</v>
+        <v>0.1358904549002941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>412</v>
@@ -6257,19 +6257,19 @@
         <v>431233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>390813</v>
+        <v>394021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>466635</v>
+        <v>472329</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1223130454341702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1108484751414859</v>
+        <v>0.1117586032973364</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1323542665865856</v>
+        <v>0.1339693821573085</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>797</v>
@@ -6278,19 +6278,19 @@
         <v>845618</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>787851</v>
+        <v>785589</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>902339</v>
+        <v>906904</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1226833193790909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1143023826849874</v>
+        <v>0.1139742551969731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1309125166700664</v>
+        <v>0.1315748104873706</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>200076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178671</v>
+        <v>178389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223531</v>
+        <v>220587</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3472975326588296</v>
+        <v>0.3472975326588297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3101427927543906</v>
+        <v>0.309652359067808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3880124024555657</v>
+        <v>0.3829013049005471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>584</v>
@@ -6642,19 +6642,19 @@
         <v>310487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>289999</v>
+        <v>288918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>332391</v>
+        <v>329594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3787782756390335</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3537842819444529</v>
+        <v>0.3524659472831009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4055006227949342</v>
+        <v>0.4020884422521668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>859</v>
@@ -6663,19 +6663,19 @@
         <v>510563</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>481770</v>
+        <v>482039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539354</v>
+        <v>543312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3657851224660227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3451568369568564</v>
+        <v>0.3453499496815059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3864126148198835</v>
+        <v>0.3892479066477494</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>126400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107193</v>
+        <v>108516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146691</v>
+        <v>147795</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2194083529417812</v>
+        <v>0.2194083529417813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1860684748453426</v>
+        <v>0.188364868591991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2546302102639681</v>
+        <v>0.2565467479701047</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>302</v>
@@ -6713,19 +6713,19 @@
         <v>184780</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165869</v>
+        <v>164685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202974</v>
+        <v>204029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2254218266534433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2023515907494436</v>
+        <v>0.2009076810711449</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2476183914352899</v>
+        <v>0.2489051065721651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>451</v>
@@ -6734,19 +6734,19 @@
         <v>311179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>285781</v>
+        <v>284452</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>336995</v>
+        <v>338544</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2229398653767787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2047437375544983</v>
+        <v>0.2037913055591052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2414349172702639</v>
+        <v>0.2425450225511669</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>139629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122677</v>
+        <v>120257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>160760</v>
+        <v>158852</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2423717112519329</v>
+        <v>0.242371711251933</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2129465647831922</v>
+        <v>0.2087464288273319</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.279052282662668</v>
+        <v>0.2757402826543448</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>325</v>
@@ -6784,19 +6784,19 @@
         <v>195892</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176545</v>
+        <v>178844</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216226</v>
+        <v>216823</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2389779313454125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2153753959838667</v>
+        <v>0.2181811620269279</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2637845969529063</v>
+        <v>0.2645130690602485</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>475</v>
@@ -6805,19 +6805,19 @@
         <v>335520</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>310241</v>
+        <v>309187</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>363842</v>
+        <v>365261</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2403786575667928</v>
+        <v>0.2403786575667929</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.222267632857204</v>
+        <v>0.2215123938664035</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2606695735295039</v>
+        <v>0.2616858440879734</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>58263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44231</v>
+        <v>43872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74899</v>
+        <v>76951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1011347039653565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0767770147791772</v>
+        <v>0.07615523085167331</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.130011338937329</v>
+        <v>0.1335743723743101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -6855,19 +6855,19 @@
         <v>74559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62522</v>
+        <v>63897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88423</v>
+        <v>89504</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09095882464200822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0762731610372642</v>
+        <v>0.07795080701278151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1078717899355198</v>
+        <v>0.1091902783546886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -6876,19 +6876,19 @@
         <v>132822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114451</v>
+        <v>115321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156353</v>
+        <v>153004</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.095158749618413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08199684208553921</v>
+        <v>0.08262005039129029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1120169805345326</v>
+        <v>0.1096177802201225</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>51726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38865</v>
+        <v>38586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67185</v>
+        <v>66427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08978769918209974</v>
+        <v>0.08978769918209975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06746229815639954</v>
+        <v>0.06697822566801713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1166209465069835</v>
+        <v>0.1153066387290359</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -6926,19 +6926,19 @@
         <v>53988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43908</v>
+        <v>43880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67441</v>
+        <v>66278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06586314172010241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05356528755314283</v>
+        <v>0.05353147509221604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08227450322303898</v>
+        <v>0.08085633940832543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -6947,19 +6947,19 @@
         <v>105714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88201</v>
+        <v>89170</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126143</v>
+        <v>124502</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07573760497199283</v>
+        <v>0.07573760497199285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06319026754974463</v>
+        <v>0.06388436790804075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09037338274421614</v>
+        <v>0.08919744818776539</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>574179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>530739</v>
+        <v>530621</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>622239</v>
+        <v>624309</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2577095258357299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2382122852152164</v>
+        <v>0.2381593021156181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2792805751248815</v>
+        <v>0.2802096046163754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>885</v>
@@ -7072,19 +7072,19 @@
         <v>576694</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>539928</v>
+        <v>537792</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>613293</v>
+        <v>611845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2659158414118024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2489629431930792</v>
+        <v>0.2479778864784546</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.282791516234312</v>
+        <v>0.282123885148328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1458</v>
@@ -7093,19 +7093,19 @@
         <v>1150873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1089613</v>
+        <v>1098490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1210690</v>
+        <v>1210110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2617573439588462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2478243326391109</v>
+        <v>0.2498432096845271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2753622834311429</v>
+        <v>0.2752304969754495</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>537371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>491982</v>
+        <v>494744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580742</v>
+        <v>585066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2411892045506042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2208169720854851</v>
+        <v>0.2220567813958614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2606550713223689</v>
+        <v>0.2625959778550907</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>773</v>
@@ -7143,19 +7143,19 @@
         <v>582636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>547410</v>
+        <v>545211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>624276</v>
+        <v>624291</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2686555790091622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2524128252467971</v>
+        <v>0.2513987127839184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2878558556008241</v>
+        <v>0.2878628162345521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1277</v>
@@ -7164,19 +7164,19 @@
         <v>1120007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1069512</v>
+        <v>1061609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1187377</v>
+        <v>1176385</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2547371710258174</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2432523841146422</v>
+        <v>0.2414550381786516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2700600009470179</v>
+        <v>0.267559831192644</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>668006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>621521</v>
+        <v>618006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>719598</v>
+        <v>715263</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2998218918993493</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.278957998598753</v>
+        <v>0.2773803307654862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3229783884515603</v>
+        <v>0.3210325546380643</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>804</v>
@@ -7214,19 +7214,19 @@
         <v>629393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>592450</v>
+        <v>590492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>673001</v>
+        <v>672454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2902155351307099</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2731808821627654</v>
+        <v>0.2722782993064413</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3103235179072731</v>
+        <v>0.3100710663597682</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1374</v>
@@ -7235,19 +7235,19 @@
         <v>1297398</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1237143</v>
+        <v>1232144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1366185</v>
+        <v>1358975</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2950834944218506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.281378824136869</v>
+        <v>0.2802417902939983</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3107284124748302</v>
+        <v>0.3090886768700686</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>279840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>246130</v>
+        <v>244887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>318987</v>
+        <v>319695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1256010237803682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1104708537447816</v>
+        <v>0.1099128505448295</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1431712104651106</v>
+        <v>0.1434890320294714</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -7285,19 +7285,19 @@
         <v>227379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>201358</v>
+        <v>202104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257167</v>
+        <v>256573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1048453510723641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09284715276587997</v>
+        <v>0.09319115005767875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1185805857589862</v>
+        <v>0.1183066008860044</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>502</v>
@@ -7306,19 +7306,19 @@
         <v>507219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>462837</v>
+        <v>467030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>556473</v>
+        <v>557282</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1153631542558405</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1052688993753945</v>
+        <v>0.1062224796912206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1265655748541175</v>
+        <v>0.126749512238257</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>168612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139882</v>
+        <v>139760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202814</v>
+        <v>206232</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07567835393394837</v>
+        <v>0.07567835393394838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06278331467112663</v>
+        <v>0.06272854056382485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.091029088548682</v>
+        <v>0.09256329970230544</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -7356,19 +7356,19 @@
         <v>152607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128747</v>
+        <v>128621</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177692</v>
+        <v>179191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07036769337596147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05936557152929784</v>
+        <v>0.05930786261995748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08193427720147059</v>
+        <v>0.08262572880740593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>296</v>
@@ -7377,19 +7377,19 @@
         <v>321219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281297</v>
+        <v>280992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365807</v>
+        <v>364289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07305883633764523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0639790013556963</v>
+        <v>0.06390941134651792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08320008482020853</v>
+        <v>0.08285487636022794</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>244079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>220752</v>
+        <v>217628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275458</v>
+        <v>270641</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3434149244372993</v>
+        <v>0.3434149244372992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3105939136654709</v>
+        <v>0.3061984095589768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3875645792603136</v>
+        <v>0.3807862234359879</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>370</v>
@@ -7502,19 +7502,19 @@
         <v>249885</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>225624</v>
+        <v>226256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>273231</v>
+        <v>271043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3403419443971804</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3072988418750192</v>
+        <v>0.3081600124754157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3721392069403368</v>
+        <v>0.3691590785557124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>617</v>
@@ -7523,19 +7523,19 @@
         <v>493964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>457593</v>
+        <v>461569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>528031</v>
+        <v>535508</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3418534726319888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3166822979151922</v>
+        <v>0.3194342190432372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3654303120485066</v>
+        <v>0.370604579355388</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>194456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166764</v>
+        <v>168365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221729</v>
+        <v>222014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.273595998372311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2346341320081143</v>
+        <v>0.2368862686982577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3119677517777469</v>
+        <v>0.3123689666968135</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>268</v>
@@ -7573,19 +7573,19 @@
         <v>197887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177082</v>
+        <v>177512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218927</v>
+        <v>218802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2695217475662608</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2411854687566361</v>
+        <v>0.2417705702932003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2981769280173155</v>
+        <v>0.2980065915552668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>453</v>
@@ -7594,19 +7594,19 @@
         <v>392343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357931</v>
+        <v>357980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428212</v>
+        <v>428467</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2715257778719044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2477105787122018</v>
+        <v>0.2477445496091032</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.296349228919687</v>
+        <v>0.296525651419437</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>178553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>154882</v>
+        <v>152189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207949</v>
+        <v>205094</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2512207550204158</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2179154780860806</v>
+        <v>0.2141265592975535</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2925796644743315</v>
+        <v>0.2885627924226684</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>256</v>
@@ -7644,19 +7644,19 @@
         <v>197666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>176086</v>
+        <v>175794</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>219652</v>
+        <v>219678</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2692197537128191</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2398286849367829</v>
+        <v>0.2394307719440287</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2991656127334643</v>
+        <v>0.299199799394178</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>421</v>
@@ -7665,19 +7665,19 @@
         <v>376219</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>344404</v>
+        <v>344575</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>412073</v>
+        <v>411003</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2603664600478219</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2383489645052626</v>
+        <v>0.2384672014620393</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2851799309749377</v>
+        <v>0.2844392795505793</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>59698</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44866</v>
+        <v>44456</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79414</v>
+        <v>77822</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08399375138252901</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06312516300410799</v>
+        <v>0.06254926696097908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1117337702728365</v>
+        <v>0.1094941377190577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -7715,19 +7715,19 @@
         <v>50018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37161</v>
+        <v>38132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63305</v>
+        <v>64071</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06812395140482587</v>
+        <v>0.06812395140482588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05061322880023902</v>
+        <v>0.05193571096483113</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08622049033280303</v>
+        <v>0.0872637229374594</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -7736,19 +7736,19 @@
         <v>109716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89135</v>
+        <v>89091</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131883</v>
+        <v>131915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0759299411717273</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06168673666438029</v>
+        <v>0.06165611769463129</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0912709496587078</v>
+        <v>0.0912935457827477</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>33955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22396</v>
+        <v>22917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46212</v>
+        <v>47461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04777457078744493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03151125723808365</v>
+        <v>0.03224437668993878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.065019525576405</v>
+        <v>0.06677618513003905</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -7786,19 +7786,19 @@
         <v>38761</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30197</v>
+        <v>28893</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51938</v>
+        <v>52090</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05279260291891378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04112781546820119</v>
+        <v>0.03935155296642678</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07073918395025401</v>
+        <v>0.07094690704434617</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -7807,19 +7807,19 @@
         <v>72717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57209</v>
+        <v>57201</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90188</v>
+        <v>89531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05032434827655769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03959211050252968</v>
+        <v>0.03958671660753747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06241588853698576</v>
+        <v>0.06196088517126915</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>1018334</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>964050</v>
+        <v>960483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1080991</v>
+        <v>1078635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2897238815386002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2742796643870881</v>
+        <v>0.2732648406538155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3075502701337913</v>
+        <v>0.3068800653700929</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1839</v>
@@ -7932,19 +7932,19 @@
         <v>1137065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1088004</v>
+        <v>1084618</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1181760</v>
+        <v>1185886</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3054467216258186</v>
+        <v>0.3054467216258185</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2922674006515094</v>
+        <v>0.291358002273954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3174530193917158</v>
+        <v>0.3185613490358371</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2934</v>
@@ -7953,19 +7953,19 @@
         <v>2155399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2081157</v>
+        <v>2079449</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2232302</v>
+        <v>2231783</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2978110043378391</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2875530016418339</v>
+        <v>0.2873169778019607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3084367040635141</v>
+        <v>0.3083649894527258</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>858227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>802800</v>
+        <v>805963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>918757</v>
+        <v>917151</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2441722898781575</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2284030120857729</v>
+        <v>0.2293026999147115</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2613935291570923</v>
+        <v>0.2609366385442118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1343</v>
@@ -8003,19 +8003,19 @@
         <v>965303</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>919009</v>
+        <v>916552</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1016542</v>
+        <v>1013301</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2593065440142309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2468708108184334</v>
+        <v>0.2462108190882541</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2730708068556167</v>
+        <v>0.2722002963327482</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2181</v>
@@ -8024,19 +8024,19 @@
         <v>1823530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1744695</v>
+        <v>1743671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1896495</v>
+        <v>1895574</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2519566704986036</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2410641229191378</v>
+        <v>0.2409226741388741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.262038288020015</v>
+        <v>0.2619110596764223</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>986187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>925604</v>
+        <v>926682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1050382</v>
+        <v>1047021</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2805779296599911</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2633415363768047</v>
+        <v>0.2636482864386934</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2988419132999486</v>
+        <v>0.2978857759845224</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1385</v>
@@ -8074,19 +8074,19 @@
         <v>1022950</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>973501</v>
+        <v>972763</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1075648</v>
+        <v>1073387</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2747922453085472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2615087379122674</v>
+        <v>0.2613106781408817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2889482435057369</v>
+        <v>0.2883410803324448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2270</v>
@@ -8095,19 +8095,19 @@
         <v>2009137</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1929155</v>
+        <v>1932882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2084810</v>
+        <v>2089114</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.277602033475319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2665508528627662</v>
+        <v>0.2670659197641698</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2880577827523175</v>
+        <v>0.2886524400655195</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>397801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>354092</v>
+        <v>356395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>444152</v>
+        <v>447231</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1131774512326131</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1007419383452276</v>
+        <v>0.1013971959017229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.126364772760017</v>
+        <v>0.1272407768381877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>457</v>
@@ -8145,19 +8145,19 @@
         <v>351956</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>319277</v>
+        <v>324278</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>385962</v>
+        <v>390060</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0945450214534188</v>
+        <v>0.09454502145341878</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08576641814772053</v>
+        <v>0.08710986488259792</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1036798774393075</v>
+        <v>0.1047806386316989</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>791</v>
@@ -8166,19 +8166,19 @@
         <v>749757</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>695595</v>
+        <v>697961</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>807545</v>
+        <v>808700</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1035937661708388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09611024283408627</v>
+        <v>0.09643712177026453</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1115782751776422</v>
+        <v>0.1117378513620843</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>254293</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>218575</v>
+        <v>214653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>293007</v>
+        <v>298054</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0723484476906381</v>
+        <v>0.07234844769063811</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06218626089422347</v>
+        <v>0.06107055565038249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08336288034462846</v>
+        <v>0.08479866669273112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>318</v>
@@ -8216,19 +8216,19 @@
         <v>245357</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>217510</v>
+        <v>218452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277417</v>
+        <v>278072</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06590946759798468</v>
+        <v>0.06590946759798466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05842903200305623</v>
+        <v>0.05868218323011782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07452188433478199</v>
+        <v>0.07469782709671481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>525</v>
@@ -8237,19 +8237,19 @@
         <v>499650</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>454901</v>
+        <v>456167</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>552549</v>
+        <v>553107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06903652551739949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06285351836650338</v>
+        <v>0.06302843414222896</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07634557552147554</v>
+        <v>0.07642260678335197</v>
       </c>
     </row>
     <row r="27">
